--- a/migracionWordPressPrestashop/Modelo 2.xlsx
+++ b/migracionWordPressPrestashop/Modelo 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja0" sheetId="1" r:id="rId1"/>
@@ -3167,7 +3167,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3178,7 +3178,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3503,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,8 +3648,8 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2" si="1">CONCATENATE(L2,",",M2,",",N2,",",O2,",",P2,",",Q2,",",R2,",",S2,",",T2,",",U2,",",V2)</f>
-        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/azul/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/4.jpg,,,,,,,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
+        <f>CONCATENATE(L2,IF(M2="","",","),M2,IF(N2="","",","),N2,IF(O2="","",","),O2,IF(P2="","",","),P2,IF(Q2="","",","),Q2,IF(R2="","",","),R2,IF(S2="","",","),S2,IF(T2="","",","),T2,IF(U2="","",","),U2,IF(V2="","",","),V2)</f>
+        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/azul/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/azul/4.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,6 +3664,10 @@
       </c>
       <c r="J3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W66" si="1">CONCATENATE(L3,IF(M3="","",","),M3,IF(N3="","",","),N3,IF(O3="","",","),O3,IF(P3="","",","),P3,IF(Q3="","",","),Q3,IF(R3="","",","),R3,IF(S3="","",","),S3,IF(T3="","",","),T3,IF(U3="","",","),U3,IF(V3="","",","),V3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3678,6 +3681,10 @@
       </c>
       <c r="J4" s="3"/>
       <c r="V4" s="3"/>
+      <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -3691,6 +3698,10 @@
       </c>
       <c r="J5" s="3"/>
       <c r="V5" s="3"/>
+      <c r="W5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -3746,8 +3757,8 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" ref="W6:W68" si="6">CONCATENATE(L6,",",M6,",",N6,",",O6,",",P6,",",Q6,",",R6,",",S6,",",T6,",",U6,",",V6)</f>
-        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/gris/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/4.jpg,,,,,,,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
+        <f t="shared" si="1"/>
+        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/gris/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/gris/4.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3762,6 +3773,10 @@
       </c>
       <c r="J7" s="3"/>
       <c r="V7" s="3"/>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -3775,6 +3790,10 @@
       </c>
       <c r="J8" s="3"/>
       <c r="V8" s="3"/>
+      <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -3786,6 +3805,10 @@
       </c>
       <c r="J9" s="3"/>
       <c r="V9" s="3"/>
+      <c r="W9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -3841,8 +3864,8 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="6"/>
-        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/negra/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/4.jpg,,,,,,,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
+        <f t="shared" si="1"/>
+        <v>https://rerda.com/imagenes/bombachas/americana/gabardina/negra/1.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/2.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/3.jpg,https://rerda.com/imagenes/bombachas/americana/gabardina/negra/4.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,6 +3880,10 @@
       </c>
       <c r="J11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -3870,6 +3897,10 @@
       </c>
       <c r="J12" s="3"/>
       <c r="V12" s="3"/>
+      <c r="W12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -3881,6 +3912,10 @@
       </c>
       <c r="J13" s="3"/>
       <c r="V13" s="3"/>
+      <c r="W13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -3908,11 +3943,11 @@
         <v>658</v>
       </c>
       <c r="J14" s="3" t="str">
-        <f t="shared" ref="J14:J30" si="7">CONCATENATE(F14,G14,"/",H14,"/",I14,"/")</f>
+        <f t="shared" ref="J14:J30" si="6">CONCATENATE(F14,G14,"/",H14,"/",I14,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14" si="8">+K$2</f>
+        <f t="shared" ref="K14" si="7">+K$2</f>
         <v>azul</v>
       </c>
       <c r="L14" t="str">
@@ -3960,7 +3995,7 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -3977,6 +4012,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="3"/>
       <c r="V15" s="3"/>
+      <c r="W15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -3991,6 +4030,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="3"/>
       <c r="V16" s="3"/>
+      <c r="W16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -4003,6 +4046,10 @@
       <c r="I17" s="1"/>
       <c r="J17" s="3"/>
       <c r="V17" s="3"/>
+      <c r="W17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -4025,11 +4072,11 @@
         <v>americana</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" ref="I18:I32" si="9">+I$14</f>
+        <f t="shared" ref="I18:I32" si="8">+I$14</f>
         <v>rip</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K18" t="s">
@@ -4076,11 +4123,11 @@
         <v>https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/10.jpg</v>
       </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" ref="V18:V22" si="10">CONCATENATE(F18,G18,"/",H18,"/tabla.jpg")</f>
+        <f t="shared" ref="V18:V22" si="9">CONCATENATE(F18,G18,"/",H18,"/tabla.jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" ref="W18:W26" si="11">CONCATENATE(L18,",",M18,",",N18,",",O18,",",P18,",",Q18,",",R18,",",S18,",",T18,",",U18,",",V18)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/azulNoche/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4095,6 +4142,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="3"/>
       <c r="V19" s="3"/>
+      <c r="W19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -4107,6 +4158,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="3"/>
       <c r="V20" s="3"/>
+      <c r="W20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -4119,6 +4174,10 @@
       <c r="I21" s="1"/>
       <c r="J21" s="3"/>
       <c r="V21" s="3"/>
+      <c r="W21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -4127,23 +4186,23 @@
       </c>
       <c r="C22" s="5"/>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:H32" si="12">+F$2</f>
+        <f t="shared" ref="F22:H32" si="10">+F$2</f>
         <v>https://rerda.com/imagenes/</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>bombachas</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>americana</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>rip</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K22" t="str">
@@ -4191,11 +4250,11 @@
         <v>https://rerda.com/imagenes/bombachas/americana/rip/gris/10.jpg</v>
       </c>
       <c r="V22" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/gris/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/gris/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4208,6 +4267,10 @@
       <c r="I23" s="1"/>
       <c r="J23" s="3"/>
       <c r="V23" s="3"/>
+      <c r="W23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -4218,6 +4281,10 @@
       <c r="I24" s="1"/>
       <c r="J24" s="3"/>
       <c r="V24" s="3"/>
+      <c r="W24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -4228,6 +4295,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="3"/>
       <c r="V25" s="3"/>
+      <c r="W25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -4240,27 +4311,27 @@
         <v>1120858</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>https://rerda.com/imagenes/</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>bombachas</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>americana</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>rip</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K26" si="13">+K$10</f>
+        <f t="shared" ref="K26" si="11">+K$10</f>
         <v>negra</v>
       </c>
       <c r="L26" t="str">
@@ -4268,39 +4339,39 @@
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/1.jpg</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26:U62" si="14">CONCATENATE($J26,$K26,"/",M$1,".jpg")</f>
+        <f t="shared" ref="M26:U62" si="12">CONCATENATE($J26,$K26,"/",M$1,".jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/2.jpg</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/3.jpg</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/4.jpg</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/5.jpg</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/6.jpg</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/7.jpg</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/8.jpg</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/9.jpg</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/10.jpg</v>
       </c>
       <c r="V26" s="3" t="str">
@@ -4308,7 +4379,7 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4325,6 +4396,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
       <c r="V27" s="3"/>
+      <c r="W27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -4339,6 +4414,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="3"/>
       <c r="V28" s="3"/>
+      <c r="W28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -4349,6 +4428,10 @@
       <c r="I29" s="1"/>
       <c r="J29" s="3"/>
       <c r="V29" s="3"/>
+      <c r="W29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -4361,7 +4444,7 @@
         <v>1120640</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>https://rerda.com/imagenes/</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -4371,54 +4454,54 @@
         <v>657</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>rip</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K30" t="s">
         <v>618</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30:U32" si="15">CONCATENATE($J30,$K30,"/",L$1,".jpg")</f>
+        <f t="shared" ref="L30:U32" si="13">CONCATENATE($J30,$K30,"/",L$1,".jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/1.jpg</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/2.jpg</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/3.jpg</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/4.jpg</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/5.jpg</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/6.jpg</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/7.jpg</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/8.jpg</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/9.jpg</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/10.jpg</v>
       </c>
       <c r="V30" s="3" t="str">
@@ -4426,7 +4509,7 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W30" t="str">
-        <f>CONCATENATE(L30,",",M30,",",N30,",",O30,",",P30,",",Q30,",",R30,",",S30,",",T30,",",U30,",",V30)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/digitalGris/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4439,7 +4522,7 @@
         <v>1120850</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>https://rerda.com/imagenes/</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4449,54 +4532,54 @@
         <v>657</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>rip</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" ref="J31" si="16">CONCATENATE(F31,G31,"/",H31,"/",I31,"/")</f>
+        <f t="shared" ref="J31" si="14">CONCATENATE(F31,G31,"/",H31,"/",I31,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K31" t="s">
         <v>672</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/1.jpg</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/2.jpg</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/3.jpg</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/4.jpg</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/5.jpg</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/6.jpg</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/7.jpg</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/8.jpg</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/9.jpg</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/10.jpg</v>
       </c>
       <c r="V31" s="3" t="str">
@@ -4504,7 +4587,7 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W31" t="str">
-        <f>CONCATENATE(L31,",",M31,",",N31,",",O31,",",P31,",",Q31,",",R31,",",S31,",",T31,",",U31,",",V31)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/infanteria/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/infanteria/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4515,7 +4598,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="F32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>https://rerda.com/imagenes/</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -4525,54 +4608,54 @@
         <v>657</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>rip</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" ref="J32" si="17">CONCATENATE(F32,G32,"/",H32,"/",I32,"/")</f>
+        <f t="shared" ref="J32" si="15">CONCATENATE(F32,G32,"/",H32,"/",I32,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/</v>
       </c>
       <c r="K32" t="s">
         <v>757</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/1.jpg</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/2.jpg</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/3.jpg</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/4.jpg</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/5.jpg</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/6.jpg</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/7.jpg</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/8.jpg</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/9.jpg</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/10.jpg</v>
       </c>
       <c r="V32" s="3" t="str">
@@ -4580,7 +4663,7 @@
         <v>https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
       <c r="W32" t="str">
-        <f>CONCATENATE(L32,",",M32,",",N32,",",O32,",",P32,",",Q32,",",R32,",",S32,",",T32,",",U32,",",V32)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/americana/rip/requisa/1.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/2.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/3.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/4.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/5.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/6.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/7.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/8.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/9.jpg,https://rerda.com/imagenes/bombachas/americana/rip/requisa/10.jpg,https://rerda.com/imagenes/bombachas/americana/tabla.jpg</v>
       </c>
     </row>
@@ -4624,39 +4707,39 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/1.jpg</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/2.jpg</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/3.jpg</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/4.jpg</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/5.jpg</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/6.jpg</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/7.jpg</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/8.jpg</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/9.jpg</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/10.jpg</v>
       </c>
       <c r="V33" s="3" t="str">
@@ -4664,7 +4747,7 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/1.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/2.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/3.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/4.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/5.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/6.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/7.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/8.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/9.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/azul/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -4686,6 +4769,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
       <c r="V34" s="3"/>
+      <c r="W34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -4705,6 +4792,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="3"/>
       <c r="V35" s="3"/>
+      <c r="W35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -4724,6 +4815,10 @@
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
       <c r="V36" s="3"/>
+      <c r="W36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4761,39 +4856,39 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/1.jpg</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/2.jpg</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/3.jpg</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/4.jpg</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/5.jpg</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/6.jpg</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/7.jpg</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/8.jpg</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/9.jpg</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/10.jpg</v>
       </c>
       <c r="V37" s="3" t="str">
@@ -4801,7 +4896,7 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/1.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/2.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/3.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/4.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/5.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/6.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/7.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/8.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/9.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/gris/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -4823,6 +4918,10 @@
       <c r="I38" s="1"/>
       <c r="J38" s="3"/>
       <c r="V38" s="3"/>
+      <c r="W38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4842,6 +4941,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="3"/>
       <c r="V39" s="3"/>
+      <c r="W39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -4879,39 +4982,39 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/1.jpg</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/2.jpg</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/3.jpg</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/4.jpg</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/5.jpg</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/6.jpg</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/7.jpg</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/8.jpg</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/9.jpg</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/10.jpg</v>
       </c>
       <c r="V40" s="3" t="str">
@@ -4919,7 +5022,7 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/1.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/2.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/3.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/4.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/5.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/6.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/7.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/8.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/9.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/negra/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -4941,6 +5044,10 @@
       <c r="I41" s="1"/>
       <c r="J41" s="3"/>
       <c r="V41" s="3"/>
+      <c r="W41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -4963,7 +5070,7 @@
         <v>665</v>
       </c>
       <c r="J42" s="3" t="str">
-        <f t="shared" ref="J42" si="18">CONCATENATE(F42,G42,"/",H42,"/",I42,"/")</f>
+        <f t="shared" ref="J42" si="16">CONCATENATE(F42,G42,"/",H42,"/",I42,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/</v>
       </c>
       <c r="K42" t="s">
@@ -4974,47 +5081,47 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/1.jpg</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/2.jpg</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/3.jpg</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/4.jpg</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/5.jpg</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/6.jpg</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/7.jpg</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ref="S42:U46" si="19">CONCATENATE($J42,$K42,"/",S$1,".jpg")</f>
+        <f t="shared" ref="S42:U46" si="17">CONCATENATE($J42,$K42,"/",S$1,".jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/8.jpg</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/9.jpg</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/10.jpg</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" ref="V42" si="20">CONCATENATE(F42,G42,"/",H42,"/tabla.jpg")</f>
+        <f t="shared" ref="V42" si="18">CONCATENATE(F42,G42,"/",H42,"/tabla.jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ref="W42" si="21">CONCATENATE(L42,",",M42,",",N42,",",O42,",",P42,",",Q42,",",R42,",",S42,",",T42,",",U42,",",V42)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/1.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/2.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/3.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/4.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/5.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/6.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/7.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/8.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/9.jpg,https://rerda.com/imagenes/bombachas/clasica/gabardina/grisPenitenciariaFederal/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -5039,7 +5146,7 @@
         <v>665</v>
       </c>
       <c r="J43" s="3" t="str">
-        <f t="shared" ref="J43:J44" si="22">CONCATENATE(F43,G43,"/",H43,"/",I43,"/")</f>
+        <f t="shared" ref="J43:J44" si="19">CONCATENATE(F43,G43,"/",H43,"/",I43,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/</v>
       </c>
       <c r="K43" t="s">
@@ -5074,23 +5181,23 @@
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/azul/7.jpg</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/azul/8.jpg</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/azul/9.jpg</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/azul/10.jpg</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" ref="V43:V44" si="23">CONCATENATE(F43,G43,"/",H43,"/tabla.jpg")</f>
+        <f t="shared" ref="V43:V44" si="20">CONCATENATE(F43,G43,"/",H43,"/tabla.jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" ref="W43:W44" si="24">CONCATENATE(L43,",",M43,",",N43,",",O43,",",P43,",",Q43,",",R43,",",S43,",",T43,",",U43,",",V43)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/azul/1.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/2.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/3.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/4.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/5.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/6.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/7.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/8.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/9.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/azul/10.jpg,https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
     </row>
@@ -5115,7 +5222,7 @@
         <v>665</v>
       </c>
       <c r="J44" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/</v>
       </c>
       <c r="K44" t="s">
@@ -5150,23 +5257,23 @@
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/negra/7.jpg</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/negra/8.jpg</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/negra/9.jpg</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/negra/10.jpg</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/dama/gabardina/negra/1.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/2.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/3.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/4.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/5.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/6.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/7.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/8.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/9.jpg,https://rerda.com/imagenes/bombachas/dama/gabardina/negra/10.jpg,https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
     </row>
@@ -5191,7 +5298,7 @@
         <v>658</v>
       </c>
       <c r="J45" s="3" t="str">
-        <f t="shared" ref="J45:J46" si="25">CONCATENATE(F45,G45,"/",H45,"/",I45,"/")</f>
+        <f t="shared" ref="J45:J46" si="21">CONCATENATE(F45,G45,"/",H45,"/",I45,"/")</f>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/</v>
       </c>
       <c r="K45" t="s">
@@ -5226,23 +5333,23 @@
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/7.jpg</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/8.jpg</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/9.jpg</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/10.jpg</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" ref="V45:V46" si="26">CONCATENATE(F45,G45,"/",H45,"/tabla.jpg")</f>
+        <f t="shared" ref="V45:V46" si="22">CONCATENATE(F45,G45,"/",H45,"/tabla.jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" ref="W45:W46" si="27">CONCATENATE(L45,",",M45,",",N45,",",O45,",",P45,",",Q45,",",R45,",",S45,",",T45,",",U45,",",V45)</f>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
     </row>
@@ -5267,7 +5374,7 @@
         <v>658</v>
       </c>
       <c r="J46" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/</v>
       </c>
       <c r="K46" t="s">
@@ -5302,23 +5409,23 @@
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/7.jpg</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/8.jpg</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/9.jpg</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/10.jpg</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/dama/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/dama/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/dama/tabla.jpg</v>
       </c>
     </row>
@@ -5358,39 +5465,39 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/1.jpg</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/2.jpg</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/3.jpg</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/4.jpg</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/5.jpg</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/6.jpg</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/7.jpg</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/8.jpg</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/9.jpg</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/10.jpg</v>
       </c>
       <c r="V47" s="3" t="str">
@@ -5398,7 +5505,7 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/1.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/2.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/3.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/4.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/5.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/6.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/7.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/8.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/9.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/digitalBeige/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -5420,6 +5527,10 @@
       <c r="I48" s="1"/>
       <c r="J48" s="3"/>
       <c r="V48" s="3"/>
+      <c r="W48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -5439,6 +5550,10 @@
       <c r="I49" s="1"/>
       <c r="J49" s="3"/>
       <c r="V49" s="3"/>
+      <c r="W49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="50" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -5458,6 +5573,10 @@
       <c r="I50" s="1"/>
       <c r="J50" s="3"/>
       <c r="V50" s="3"/>
+      <c r="W50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -5495,39 +5614,39 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/1.jpg</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/2.jpg</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/3.jpg</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/4.jpg</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/5.jpg</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/6.jpg</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/7.jpg</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/8.jpg</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/9.jpg</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/10.jpg</v>
       </c>
       <c r="V51" s="3" t="str">
@@ -5535,7 +5654,7 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/gris/1.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/2.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/3.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/4.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/5.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/6.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/7.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/8.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/9.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/gris/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -5575,47 +5694,47 @@
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/1.jpg</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/2.jpg</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/3.jpg</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/4.jpg</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/5.jpg</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/6.jpg</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/7.jpg</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/8.jpg</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/9.jpg</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/10.jpg</v>
       </c>
       <c r="V52" s="3" t="str">
         <f t="shared" si="5"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
-      <c r="W52" s="6" t="str">
-        <f t="shared" si="6"/>
+      <c r="W52" t="str">
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/1.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/2.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/3.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/4.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/5.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/6.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/7.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/8.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/9.jpg,https://rerda.com/imagenes/bombachas/clasica/rip/infanteria/10.jpg,https://rerda.com/imagenes/bombachas/clasica/tabla.jpg</v>
       </c>
     </row>
@@ -5659,39 +5778,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg</v>
       </c>
       <c r="V53" s="3" t="str">
@@ -5699,7 +5818,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -5743,39 +5862,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg</v>
       </c>
       <c r="V54" s="3" t="str">
@@ -5783,7 +5902,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -5827,39 +5946,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg</v>
       </c>
       <c r="V55" s="3" t="str">
@@ -5867,7 +5986,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -5911,39 +6030,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg</v>
       </c>
       <c r="V56" s="3" t="str">
@@ -5951,7 +6070,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -5995,39 +6114,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg</v>
       </c>
       <c r="V57" s="3" t="str">
@@ -6035,7 +6154,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -6079,39 +6198,39 @@
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg</v>
       </c>
       <c r="V58" s="3" t="str">
@@ -6119,7 +6238,7 @@
         <v>https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/condor/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/condor/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/condor/tabla.jpg</v>
       </c>
     </row>
@@ -6163,39 +6282,39 @@
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/1.jpg</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/2.jpg</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/3.jpg</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/4.jpg</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/5.jpg</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/6.jpg</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/7.jpg</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/8.jpg</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/9.jpg</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/10.jpg</v>
       </c>
       <c r="V59" s="3" t="str">
@@ -6203,7 +6322,7 @@
         <v>https://rerda.com/imagenes/bombachas/hagana/tabla.jpg</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/1.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/2.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/3.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/4.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/5.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/6.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/7.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/8.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/9.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/10.jpg,https://rerda.com/imagenes/bombachas/hagana/tabla.jpg</v>
       </c>
     </row>
@@ -6247,39 +6366,39 @@
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/1.jpg</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/2.jpg</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/3.jpg</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/4.jpg</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/5.jpg</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/6.jpg</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/7.jpg</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/8.jpg</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/9.jpg</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/10.jpg</v>
       </c>
       <c r="V60" s="3" t="str">
@@ -6287,7 +6406,7 @@
         <v>https://rerda.com/imagenes/bombachas/hagana/tabla.jpg</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/hagana/rip/multicam/1.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/2.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/3.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/4.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/5.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/6.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/7.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/8.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/9.jpg,https://rerda.com/imagenes/bombachas/hagana/rip/multicam/10.jpg,https://rerda.com/imagenes/bombachas/hagana/tabla.jpg</v>
       </c>
     </row>
@@ -6331,39 +6450,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/1.jpg</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/2.jpg</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/3.jpg</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/4.jpg</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/5.jpg</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/6.jpg</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/7.jpg</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/8.jpg</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/9.jpg</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/10.jpg</v>
       </c>
       <c r="V61" s="3" t="str">
@@ -6371,7 +6490,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6415,39 +6534,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/1.jpg</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/2.jpg</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/3.jpg</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/4.jpg</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/5.jpg</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/6.jpg</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/7.jpg</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" ref="M62:U68" si="28">CONCATENATE($J62,$K62,"/",S$1,".jpg")</f>
+        <f t="shared" ref="M62:U68" si="23">CONCATENATE($J62,$K62,"/",S$1,".jpg")</f>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/8.jpg</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/9.jpg</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/10.jpg</v>
       </c>
       <c r="V62" s="3" t="str">
@@ -6455,7 +6574,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/azul/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/azul/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6499,39 +6618,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg</v>
       </c>
       <c r="V63" s="3" t="str">
@@ -6539,7 +6658,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6583,39 +6702,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg</v>
       </c>
       <c r="V64" s="3" t="str">
@@ -6623,7 +6742,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6667,39 +6786,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg</v>
       </c>
       <c r="V65" s="3" t="str">
@@ -6707,7 +6826,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/infanteria/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6751,39 +6870,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg</v>
       </c>
       <c r="V66" s="3" t="str">
@@ -6791,7 +6910,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6835,39 +6954,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg</v>
       </c>
       <c r="V67" s="3" t="str">
@@ -6875,7 +6994,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="W67:W130" si="24">CONCATENATE(L67,IF(M67="","",","),M67,IF(N67="","",","),N67,IF(O67="","",","),O67,IF(P67="","",","),P67,IF(Q67="","",","),Q67,IF(R67="","",","),R67,IF(S67="","",","),S67,IF(T67="","",","),T67,IF(U67="","",","),U67,IF(V67="","",","),V67)</f>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6919,39 +7038,39 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg</v>
       </c>
       <c r="V68" s="3" t="str">
@@ -6959,7 +7078,7 @@
         <v>https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>https://rerda.com/imagenes/bombachas/jazak/rip/negra/1.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/2.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/3.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/4.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/5.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/6.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/7.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/8.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/9.jpg,https://rerda.com/imagenes/bombachas/jazak/rip/negra/10.jpg,https://rerda.com/imagenes/bombachas/jazak/tabla.jpg</v>
       </c>
     </row>
@@ -6990,6 +7109,10 @@
       <c r="J69" t="s">
         <v>159</v>
       </c>
+      <c r="W69" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -7018,6 +7141,10 @@
       <c r="J70" t="s">
         <v>161</v>
       </c>
+      <c r="W70" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -7046,6 +7173,10 @@
       <c r="J71" t="s">
         <v>39</v>
       </c>
+      <c r="W71" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -7074,6 +7205,10 @@
       <c r="J72" t="s">
         <v>14</v>
       </c>
+      <c r="W72" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -7091,6 +7226,10 @@
       <c r="J73" t="s">
         <v>124</v>
       </c>
+      <c r="W73" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -7108,6 +7247,10 @@
       <c r="J74" t="s">
         <v>125</v>
       </c>
+      <c r="W74" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -7125,6 +7268,10 @@
       <c r="J75" t="s">
         <v>126</v>
       </c>
+      <c r="W75" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -7145,6 +7292,10 @@
       <c r="J76" t="s">
         <v>134</v>
       </c>
+      <c r="W76" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -7165,6 +7316,10 @@
       <c r="J77" t="s">
         <v>135</v>
       </c>
+      <c r="W77" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="78" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -7182,6 +7337,10 @@
       <c r="J78" t="s">
         <v>132</v>
       </c>
+      <c r="W78" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -7199,6 +7358,10 @@
       <c r="J79" t="s">
         <v>133</v>
       </c>
+      <c r="W79" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -7216,8 +7379,12 @@
       <c r="J80" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W80" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>582</v>
       </c>
@@ -7233,8 +7400,12 @@
       <c r="J81" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W81" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>583</v>
       </c>
@@ -7250,8 +7421,12 @@
       <c r="J82" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>705</v>
       </c>
@@ -7267,8 +7442,12 @@
       <c r="J83" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>706</v>
       </c>
@@ -7284,8 +7463,12 @@
       <c r="J84" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W84" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>702</v>
       </c>
@@ -7301,8 +7484,12 @@
       <c r="J85" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>703</v>
       </c>
@@ -7318,8 +7505,12 @@
       <c r="J86" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W86" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>704</v>
       </c>
@@ -7335,8 +7526,12 @@
       <c r="J87" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W87" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>717</v>
       </c>
@@ -7352,8 +7547,12 @@
       <c r="J88" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W88" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>719</v>
       </c>
@@ -7369,8 +7568,12 @@
       <c r="J89" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W89" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>720</v>
       </c>
@@ -7386,8 +7589,12 @@
       <c r="J90" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W90" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>722</v>
       </c>
@@ -7403,8 +7610,12 @@
       <c r="J91" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W91" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>711</v>
       </c>
@@ -7420,8 +7631,12 @@
       <c r="J92" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W92" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>712</v>
       </c>
@@ -7437,8 +7652,12 @@
       <c r="J93" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W93" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>713</v>
       </c>
@@ -7454,8 +7673,12 @@
       <c r="J94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>628</v>
       </c>
@@ -7478,8 +7701,12 @@
       <c r="J95" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W95" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>636</v>
       </c>
@@ -7502,8 +7729,12 @@
       <c r="J96" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>714</v>
       </c>
@@ -7519,8 +7750,12 @@
       <c r="J97" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W97" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>715</v>
       </c>
@@ -7536,8 +7771,12 @@
       <c r="J98" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W98" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>716</v>
       </c>
@@ -7553,8 +7792,12 @@
       <c r="J99" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>49</v>
       </c>
@@ -7570,8 +7813,12 @@
       <c r="J100" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W100" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>738</v>
       </c>
@@ -7594,8 +7841,12 @@
       <c r="J101" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>739</v>
       </c>
@@ -7618,8 +7869,12 @@
       <c r="J102" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W102" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23</v>
       </c>
@@ -7642,8 +7897,12 @@
       <c r="J103" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W103" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>547</v>
       </c>
@@ -7666,8 +7925,12 @@
       <c r="J104" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W104" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>24</v>
       </c>
@@ -7690,8 +7953,12 @@
       <c r="J105" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W105" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>691</v>
       </c>
@@ -7714,8 +7981,12 @@
       <c r="J106" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W106" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>689</v>
       </c>
@@ -7738,8 +8009,12 @@
       <c r="J107" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W107" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>690</v>
       </c>
@@ -7762,8 +8037,12 @@
       <c r="J108" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W108" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>688</v>
       </c>
@@ -7786,8 +8065,12 @@
       <c r="J109" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W109" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>658</v>
       </c>
@@ -7810,8 +8093,12 @@
       <c r="J110" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W110" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>25</v>
       </c>
@@ -7834,8 +8121,12 @@
       <c r="J111" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W111" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>657</v>
       </c>
@@ -7858,8 +8149,12 @@
       <c r="J112" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W112" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>27</v>
       </c>
@@ -7878,8 +8173,12 @@
       <c r="J113" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W113" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>546</v>
       </c>
@@ -7898,8 +8197,12 @@
       <c r="J114" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W114" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>26</v>
       </c>
@@ -7918,8 +8221,12 @@
       <c r="J115" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W115" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>193</v>
       </c>
@@ -7935,8 +8242,12 @@
       <c r="J116" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W116" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>346</v>
       </c>
@@ -7952,8 +8263,12 @@
       <c r="J117" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W117" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56</v>
       </c>
@@ -7974,8 +8289,12 @@
       <c r="J118" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W118" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>557</v>
       </c>
@@ -7996,8 +8315,12 @@
       <c r="J119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W119" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>34</v>
       </c>
@@ -8020,8 +8343,12 @@
       <c r="J120" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W120" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>31</v>
       </c>
@@ -8044,8 +8371,12 @@
       <c r="J121" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W121" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>32</v>
       </c>
@@ -8068,8 +8399,12 @@
       <c r="J122" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W122" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>35</v>
       </c>
@@ -8092,8 +8427,12 @@
       <c r="J123" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>548</v>
       </c>
@@ -8116,8 +8455,12 @@
       <c r="J124" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W124" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>36</v>
       </c>
@@ -8140,8 +8483,12 @@
       <c r="J125" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W125" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>677</v>
       </c>
@@ -8164,8 +8511,12 @@
       <c r="J126" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W126" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>718</v>
       </c>
@@ -8188,8 +8539,12 @@
       <c r="J127" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W127" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>676</v>
       </c>
@@ -8212,8 +8567,12 @@
       <c r="J128" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W128" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>675</v>
       </c>
@@ -8236,8 +8595,12 @@
       <c r="J129" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W129" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>28</v>
       </c>
@@ -8256,8 +8619,12 @@
       <c r="J130" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W130" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>29</v>
       </c>
@@ -8280,8 +8647,12 @@
       <c r="J131" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W131" t="str">
+        <f t="shared" ref="W131:W169" si="25">CONCATENATE(L131,IF(M131="","",","),M131,IF(N131="","",","),N131,IF(O131="","",","),O131,IF(P131="","",","),P131,IF(Q131="","",","),Q131,IF(R131="","",","),R131,IF(S131="","",","),S131,IF(T131="","",","),T131,IF(U131="","",","),U131,IF(V131="","",","),V131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>665</v>
       </c>
@@ -8304,8 +8675,12 @@
       <c r="J132" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W132" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>668</v>
       </c>
@@ -8328,8 +8703,12 @@
       <c r="J133" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W133" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>669</v>
       </c>
@@ -8352,8 +8731,12 @@
       <c r="J134" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W134" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>670</v>
       </c>
@@ -8376,8 +8759,12 @@
       <c r="J135" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W135" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>666</v>
       </c>
@@ -8400,8 +8787,12 @@
       <c r="J136" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W136" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>671</v>
       </c>
@@ -8424,8 +8815,12 @@
       <c r="J137" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W137" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22</v>
       </c>
@@ -8448,8 +8843,12 @@
       <c r="J138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W138" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>667</v>
       </c>
@@ -8472,8 +8871,12 @@
       <c r="J139" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W139" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>549</v>
       </c>
@@ -8496,8 +8899,12 @@
       <c r="J140" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W140" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>652</v>
       </c>
@@ -8513,8 +8920,12 @@
       <c r="J141" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W141" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>494</v>
       </c>
@@ -8537,8 +8948,12 @@
       <c r="J142" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W142" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>194</v>
       </c>
@@ -8561,8 +8976,12 @@
       <c r="J143" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W143" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>692</v>
       </c>
@@ -8585,8 +9004,12 @@
       <c r="J144" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W144" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>61</v>
       </c>
@@ -8609,8 +9032,12 @@
       <c r="J145" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W145" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>644</v>
       </c>
@@ -8633,8 +9060,12 @@
       <c r="J146" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W146" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>495</v>
       </c>
@@ -8657,8 +9088,12 @@
       <c r="J147" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W147" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>694</v>
       </c>
@@ -8681,8 +9116,12 @@
       <c r="J148" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W148" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>643</v>
       </c>
@@ -8705,8 +9144,12 @@
       <c r="J149" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W149" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>693</v>
       </c>
@@ -8729,8 +9172,12 @@
       <c r="J150" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W150" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>642</v>
       </c>
@@ -8753,8 +9200,12 @@
       <c r="J151" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W151" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>491</v>
       </c>
@@ -8770,8 +9221,12 @@
       <c r="J152" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W152" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>493</v>
       </c>
@@ -8787,8 +9242,12 @@
       <c r="J153" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W153" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>490</v>
       </c>
@@ -8804,8 +9263,12 @@
       <c r="J154" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W154" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>492</v>
       </c>
@@ -8821,8 +9284,12 @@
       <c r="J155" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W155" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>637</v>
       </c>
@@ -8838,8 +9305,12 @@
       <c r="J156" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W156" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>55</v>
       </c>
@@ -8862,8 +9333,12 @@
       <c r="J157" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W157" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>297</v>
       </c>
@@ -8886,8 +9361,12 @@
       <c r="J158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W158" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>726</v>
       </c>
@@ -8910,8 +9389,12 @@
       <c r="J159" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W159" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18</v>
       </c>
@@ -8934,8 +9417,12 @@
       <c r="J160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W160" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>727</v>
       </c>
@@ -8958,8 +9445,12 @@
       <c r="J161" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W161" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>724</v>
       </c>
@@ -8975,8 +9466,12 @@
       <c r="J162" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W162" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19</v>
       </c>
@@ -8992,8 +9487,12 @@
       <c r="J163" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W163" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>725</v>
       </c>
@@ -9009,8 +9508,12 @@
       <c r="J164" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W164" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>528</v>
       </c>
@@ -9026,8 +9529,12 @@
       <c r="J165" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W165" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20</v>
       </c>
@@ -9043,8 +9550,12 @@
       <c r="J166" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W166" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>660</v>
       </c>
@@ -9060,8 +9571,12 @@
       <c r="J167" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W167" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>661</v>
       </c>
@@ -9077,8 +9592,12 @@
       <c r="J168" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W168" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17</v>
       </c>
@@ -9094,14 +9613,18 @@
       <c r="J169" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="W169" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9331,7 +9854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -12473,13 +12996,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B149"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>676</v>
       </c>
@@ -12487,7 +13013,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>676</v>
       </c>
@@ -12495,7 +13021,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>676</v>
       </c>
@@ -12503,7 +13029,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>676</v>
       </c>
@@ -12511,7 +13037,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>676</v>
       </c>
@@ -12519,7 +13045,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>676</v>
       </c>
@@ -12527,7 +13053,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>676</v>
       </c>
@@ -12535,7 +13061,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>676</v>
       </c>
@@ -12543,7 +13069,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>676</v>
       </c>
@@ -12551,7 +13077,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>676</v>
       </c>
@@ -12559,7 +13085,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>676</v>
       </c>
@@ -12567,7 +13093,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>676</v>
       </c>
@@ -12575,7 +13101,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>676</v>
       </c>
@@ -12583,7 +13109,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>676</v>
       </c>
@@ -12591,7 +13117,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>676</v>
       </c>
@@ -12599,7 +13125,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>676</v>
       </c>
@@ -12607,7 +13133,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>676</v>
       </c>
@@ -12615,7 +13141,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>678</v>
       </c>
@@ -12623,7 +13149,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>678</v>
       </c>
@@ -12631,7 +13157,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>678</v>
       </c>
@@ -12639,7 +13165,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>678</v>
       </c>
@@ -12647,7 +13173,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>678</v>
       </c>
@@ -12655,7 +13181,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>678</v>
       </c>
@@ -12663,7 +13189,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>678</v>
       </c>
@@ -12671,7 +13197,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>678</v>
       </c>
@@ -12679,7 +13205,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>678</v>
       </c>
@@ -12687,7 +13213,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>680</v>
       </c>
@@ -12695,7 +13221,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>680</v>
       </c>
@@ -12703,7 +13229,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>680</v>
       </c>
@@ -12711,7 +13237,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>680</v>
       </c>
@@ -12719,7 +13245,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>678</v>
       </c>
@@ -12727,7 +13253,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>678</v>
       </c>
@@ -12735,7 +13261,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>682</v>
       </c>
@@ -12743,7 +13269,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>682</v>
       </c>
@@ -12751,7 +13277,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>682</v>
       </c>
@@ -12759,7 +13285,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>682</v>
       </c>
@@ -12767,7 +13293,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>682</v>
       </c>
@@ -12775,7 +13301,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>682</v>
       </c>
@@ -12783,7 +13309,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>684</v>
       </c>
@@ -12791,7 +13317,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>684</v>
       </c>
@@ -12799,7 +13325,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>686</v>
       </c>
@@ -12807,7 +13333,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>686</v>
       </c>
@@ -12815,7 +13341,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>686</v>
       </c>
@@ -12823,7 +13349,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>686</v>
       </c>
@@ -12831,7 +13357,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>686</v>
       </c>
@@ -12839,7 +13365,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>686</v>
       </c>
@@ -12847,7 +13373,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>686</v>
       </c>
@@ -12855,7 +13381,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>686</v>
       </c>
@@ -12863,7 +13389,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>688</v>
       </c>
@@ -12871,7 +13397,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>688</v>
       </c>
@@ -12879,7 +13405,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>688</v>
       </c>
@@ -12887,7 +13413,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>690</v>
       </c>
@@ -12895,22 +13421,22 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>692</v>
       </c>
@@ -12918,7 +13444,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>692</v>
       </c>
@@ -12926,92 +13452,92 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>696</v>
       </c>
@@ -13019,7 +13545,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>696</v>
       </c>
@@ -13027,27 +13553,27 @@
         <v>697</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>699</v>
       </c>
@@ -13055,7 +13581,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>699</v>
       </c>
@@ -13063,7 +13589,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>699</v>
       </c>
@@ -13071,7 +13597,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>701</v>
       </c>
@@ -13079,7 +13605,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>701</v>
       </c>
@@ -13087,7 +13613,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>701</v>
       </c>
@@ -13095,7 +13621,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>701</v>
       </c>
@@ -13103,7 +13629,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>701</v>
       </c>
@@ -13111,7 +13637,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>701</v>
       </c>
@@ -13119,7 +13645,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>703</v>
       </c>
@@ -13127,7 +13653,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>705</v>
       </c>
@@ -13135,7 +13661,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>705</v>
       </c>
@@ -13143,7 +13669,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>707</v>
       </c>
@@ -13151,7 +13677,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>707</v>
       </c>
@@ -13159,7 +13685,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>709</v>
       </c>
@@ -13167,29 +13693,29 @@
         <v>710</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>714</v>
       </c>
@@ -13197,7 +13723,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>716</v>
       </c>
@@ -13205,7 +13731,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>716</v>
       </c>
@@ -13213,7 +13739,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>718</v>
       </c>
@@ -13221,7 +13747,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>718</v>
       </c>
@@ -13229,7 +13755,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>718</v>
       </c>
@@ -13237,7 +13763,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>718</v>
       </c>
@@ -13245,7 +13771,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>718</v>
       </c>
@@ -13253,7 +13779,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>718</v>
       </c>
@@ -13261,7 +13787,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>718</v>
       </c>
@@ -13269,7 +13795,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>720</v>
       </c>
@@ -13277,7 +13803,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>722</v>
       </c>
@@ -13285,7 +13811,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>724</v>
       </c>
@@ -13293,7 +13819,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>724</v>
       </c>
@@ -13301,7 +13827,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>724</v>
       </c>
@@ -13309,7 +13835,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>724</v>
       </c>
@@ -13317,7 +13843,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>724</v>
       </c>
@@ -13325,7 +13851,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>724</v>
       </c>
@@ -13333,7 +13859,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>724</v>
       </c>
@@ -13341,7 +13867,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>724</v>
       </c>
@@ -13349,7 +13875,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>726</v>
       </c>
@@ -13357,12 +13883,12 @@
         <v>727</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>729</v>
       </c>
@@ -13370,7 +13896,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>731</v>
       </c>
@@ -13378,7 +13904,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>731</v>
       </c>
@@ -13386,7 +13912,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>731</v>
       </c>
@@ -13394,7 +13920,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>731</v>
       </c>
@@ -13402,7 +13928,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>731</v>
       </c>
@@ -13410,7 +13936,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>731</v>
       </c>
@@ -13418,7 +13944,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>731</v>
       </c>
@@ -13426,7 +13952,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>731</v>
       </c>
@@ -13434,7 +13960,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>731</v>
       </c>
@@ -13442,32 +13968,32 @@
         <v>732</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>738</v>
       </c>
@@ -13475,7 +14001,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>740</v>
       </c>
@@ -13483,7 +14009,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>742</v>
       </c>
@@ -13491,7 +14017,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>742</v>
       </c>
@@ -13499,7 +14025,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>742</v>
       </c>
@@ -13507,42 +14033,42 @@
         <v>743</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>746</v>
       </c>
